--- a/data/trans_orig/P1402-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1402-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A101E8D9-9526-4AB9-B5FA-89B20CCF58B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF6871DB-C9AE-4508-A1C5-B130DF8F4DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD9EA41F-1E1B-44D3-B100-77D89D2D9890}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D048B92F-989B-4485-BB1C-F7121388AAF3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="444">
   <si>
     <t>Población con diagnóstico de diabetes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1243 +95,1258 @@
     <t>7,17%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>2,22%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
   </si>
   <si>
     <t>9,95%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
   </si>
   <si>
     <t>90,05%</t>
   </si>
   <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
   </si>
   <si>
     <t>96,16%</t>
   </si>
   <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>2,12%</t>
   </si>
   <si>
     <t>9,39%</t>
   </si>
   <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
+    <t>7,76%</t>
   </si>
   <si>
     <t>9,01%</t>
@@ -1340,19 +1355,22 @@
     <t>90,61%</t>
   </si>
   <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
   </si>
   <si>
     <t>91,17%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
 </sst>
 </file>
@@ -1764,7 +1782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0083FED4-6268-48B4-9741-71629B73820A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5E2512-60D8-46F6-AAED-5C2DF804A9DD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2354,10 +2372,10 @@
         <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -2366,13 +2384,13 @@
         <v>76565</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>134</v>
@@ -2381,13 +2399,13 @@
         <v>141571</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,13 +2420,13 @@
         <v>896794</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>837</v>
@@ -2417,13 +2435,13 @@
         <v>891828</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>1670</v>
@@ -2432,13 +2450,13 @@
         <v>1788622</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,7 +2512,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2512,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2527,7 +2545,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2542,7 +2560,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,13 +2575,13 @@
         <v>29851</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -2572,13 +2590,13 @@
         <v>45293</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>77</v>
@@ -2587,13 +2605,13 @@
         <v>75144</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,13 +2626,13 @@
         <v>648658</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>649</v>
@@ -2623,13 +2641,13 @@
         <v>638548</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>1260</v>
@@ -2638,13 +2656,13 @@
         <v>1287206</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,7 +2718,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2718,7 +2736,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2733,7 +2751,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2748,7 +2766,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,13 +2781,13 @@
         <v>50725</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H21" s="7">
         <v>64</v>
@@ -2778,13 +2796,13 @@
         <v>65889</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M21" s="7">
         <v>122</v>
@@ -2793,13 +2811,13 @@
         <v>116614</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2832,13 @@
         <v>891497</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>933</v>
@@ -2829,13 +2847,13 @@
         <v>972723</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>1869</v>
@@ -2844,13 +2862,13 @@
         <v>1864220</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,7 +2942,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2939,7 +2957,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2954,7 +2972,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2987,13 @@
         <v>185467</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H25" s="7">
         <v>224</v>
@@ -2984,13 +3002,13 @@
         <v>229249</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M25" s="7">
         <v>416</v>
@@ -2999,13 +3017,13 @@
         <v>414716</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +3038,13 @@
         <v>3091077</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H26" s="7">
         <v>3073</v>
@@ -3047,7 +3065,7 @@
         <v>6095</v>
       </c>
       <c r="N26" s="7">
-        <v>6241024</v>
+        <v>6241025</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>132</v>
@@ -3098,7 +3116,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -3133,7 +3151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27079F02-3908-41EB-91FD-8EFCA19C708D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE82E0-534A-4D3B-8491-87DF8FEFA000}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3338,13 +3356,13 @@
         <v>10354</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3377,13 @@
         <v>110852</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H6" s="7">
         <v>94</v>
@@ -3374,13 +3392,13 @@
         <v>106464</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M6" s="7">
         <v>210</v>
@@ -3389,13 +3407,13 @@
         <v>217316</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,7 +3487,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3484,7 +3502,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3514,13 +3532,13 @@
         <v>43423</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H9" s="7">
         <v>42</v>
@@ -3529,13 +3547,13 @@
         <v>44173</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M9" s="7">
         <v>81</v>
@@ -3544,13 +3562,13 @@
         <v>87596</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3583,13 @@
         <v>544281</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H10" s="7">
         <v>509</v>
@@ -3580,13 +3598,13 @@
         <v>540972</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M10" s="7">
         <v>1022</v>
@@ -3595,7 +3613,7 @@
         <v>1085253</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>173</v>
@@ -3705,7 +3723,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,10 +3756,10 @@
         <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>137</v>
@@ -3750,13 +3768,13 @@
         <v>149017</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,13 +3789,13 @@
         <v>952240</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H14" s="7">
         <v>861</v>
@@ -3786,13 +3804,13 @@
         <v>945663</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="M14" s="7">
         <v>1737</v>
@@ -3801,13 +3819,13 @@
         <v>1897903</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,7 +3881,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3881,7 +3899,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3896,7 +3914,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3911,7 +3929,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,13 +3944,13 @@
         <v>54702</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>62</v>
@@ -3941,13 +3959,13 @@
         <v>66045</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>111</v>
@@ -3956,13 +3974,13 @@
         <v>120747</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +3995,13 @@
         <v>702921</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H18" s="7">
         <v>643</v>
@@ -3992,13 +4010,13 @@
         <v>711129</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M18" s="7">
         <v>1283</v>
@@ -4007,13 +4025,13 @@
         <v>1414050</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,7 +4087,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4102,7 +4120,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4117,7 +4135,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4150,13 @@
         <v>88381</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H21" s="7">
         <v>104</v>
@@ -4147,13 +4165,13 @@
         <v>108235</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>211</v>
+        <v>70</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M21" s="7">
         <v>186</v>
@@ -4162,13 +4180,13 @@
         <v>196616</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4201,13 @@
         <v>859358</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="H22" s="7">
         <v>899</v>
@@ -4198,13 +4216,13 @@
         <v>943666</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="M22" s="7">
         <v>1727</v>
@@ -4213,13 +4231,13 @@
         <v>1803024</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,7 +4311,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4308,7 +4326,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4323,7 +4341,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,13 +4356,13 @@
         <v>257126</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H25" s="7">
         <v>290</v>
@@ -4353,13 +4371,13 @@
         <v>307203</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M25" s="7">
         <v>526</v>
@@ -4368,13 +4386,13 @@
         <v>564329</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>102</v>
+        <v>233</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4407,13 @@
         <v>3169653</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H26" s="7">
         <v>3006</v>
@@ -4404,28 +4422,28 @@
         <v>3247895</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>239</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="M26" s="7">
         <v>5979</v>
       </c>
       <c r="N26" s="7">
-        <v>6417548</v>
+        <v>6417549</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>110</v>
+        <v>242</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>51</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,7 +4485,7 @@
         <v>6505</v>
       </c>
       <c r="N27" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -4502,7 +4520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D8FD46-5246-41AC-B9C8-43E8D3E029B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582D3098-F1A5-4100-825A-2AF8638B466A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4519,7 +4537,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4632,7 +4650,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4647,7 +4665,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4662,7 +4680,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,13 +4695,13 @@
         <v>8007</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -4692,13 +4710,13 @@
         <v>9469</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>253</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -4707,13 +4725,13 @@
         <v>17476</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>43</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4746,13 @@
         <v>108539</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>107</v>
+        <v>257</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="H6" s="7">
         <v>107</v>
@@ -4743,13 +4761,13 @@
         <v>103891</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>108</v>
+        <v>262</v>
       </c>
       <c r="M6" s="7">
         <v>211</v>
@@ -4758,13 +4776,13 @@
         <v>212430</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,7 +4856,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4853,7 +4871,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4868,7 +4886,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4901,13 @@
         <v>57111</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>256</v>
+        <v>106</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="H9" s="7">
         <v>43</v>
@@ -4898,13 +4916,13 @@
         <v>46010</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>259</v>
+        <v>69</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="M9" s="7">
         <v>100</v>
@@ -4913,13 +4931,13 @@
         <v>103121</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>262</v>
+        <v>160</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4952,13 @@
         <v>501143</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>113</v>
       </c>
       <c r="H10" s="7">
         <v>508</v>
@@ -4949,13 +4967,13 @@
         <v>513469</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="M10" s="7">
         <v>990</v>
@@ -4964,13 +4982,13 @@
         <v>1014612</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,7 +5092,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,13 +5107,13 @@
         <v>85681</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>99</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -5104,13 +5122,13 @@
         <v>85061</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>157</v>
@@ -5119,13 +5137,13 @@
         <v>170742</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5158,13 @@
         <v>936750</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>107</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>905</v>
@@ -5155,13 +5173,13 @@
         <v>957852</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>1771</v>
@@ -5170,13 +5188,13 @@
         <v>1894602</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,7 +5250,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5250,7 +5268,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5265,7 +5283,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5280,7 +5298,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5313,13 @@
         <v>74092</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -5310,13 +5328,13 @@
         <v>69699</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
         <v>129</v>
@@ -5325,13 +5343,13 @@
         <v>143791</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,13 +5364,13 @@
         <v>685460</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="H18" s="7">
         <v>675</v>
@@ -5361,13 +5379,13 @@
         <v>715312</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>1303</v>
@@ -5376,13 +5394,13 @@
         <v>1400772</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,7 +5456,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5486,7 +5504,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,13 +5519,13 @@
         <v>72825</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>310</v>
+        <v>104</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H21" s="7">
         <v>73</v>
@@ -5516,13 +5534,13 @@
         <v>86940</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>318</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M21" s="7">
         <v>152</v>
@@ -5531,13 +5549,13 @@
         <v>159765</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,13 +5570,13 @@
         <v>864742</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>317</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>886</v>
@@ -5567,13 +5585,13 @@
         <v>956839</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>68</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>1739</v>
@@ -5582,13 +5600,13 @@
         <v>1821581</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,7 +5680,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5677,7 +5695,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5692,7 +5710,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,13 +5725,13 @@
         <v>297716</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>322</v>
+        <v>201</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="H25" s="7">
         <v>257</v>
@@ -5722,13 +5740,13 @@
         <v>297179</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="M25" s="7">
         <v>555</v>
@@ -5737,13 +5755,13 @@
         <v>594895</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>325</v>
+        <v>229</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,13 +5776,13 @@
         <v>3096634</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>328</v>
+        <v>210</v>
       </c>
       <c r="H26" s="7">
         <v>3081</v>
@@ -5773,13 +5791,13 @@
         <v>3247363</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="M26" s="7">
         <v>6014</v>
@@ -5788,13 +5806,13 @@
         <v>6343997</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>331</v>
+        <v>237</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,7 +5889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E415542E-AD81-4E75-8069-7DB8D17F6E5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0E9CF2-966A-4E1F-980B-4C2F70BCB1FC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5888,7 +5906,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6001,7 +6019,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6016,7 +6034,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6031,7 +6049,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6046,13 +6064,13 @@
         <v>10121</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -6061,13 +6079,13 @@
         <v>17390</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M5" s="7">
         <v>58</v>
@@ -6076,13 +6094,13 @@
         <v>27511</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,13 +6115,13 @@
         <v>91861</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H6" s="7">
         <v>201</v>
@@ -6112,13 +6130,13 @@
         <v>113343</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M6" s="7">
         <v>303</v>
@@ -6127,13 +6145,13 @@
         <v>205204</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6207,7 +6225,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6216,13 +6234,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6231,13 +6249,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>115</v>
+        <v>366</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6252,13 +6270,13 @@
         <v>56883</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H9" s="7">
         <v>116</v>
@@ -6267,13 +6285,13 @@
         <v>53240</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>105</v>
+        <v>371</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="M9" s="7">
         <v>200</v>
@@ -6282,13 +6300,13 @@
         <v>110123</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,13 +6321,13 @@
         <v>491465</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H10" s="7">
         <v>879</v>
@@ -6318,13 +6336,13 @@
         <v>539315</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="M10" s="7">
         <v>1405</v>
@@ -6333,13 +6351,13 @@
         <v>1030780</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,13 +6440,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6437,13 +6455,13 @@
         <v>1323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>175</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,13 +6476,13 @@
         <v>87891</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>156</v>
@@ -6473,13 +6491,13 @@
         <v>84058</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="M13" s="7">
         <v>275</v>
@@ -6488,13 +6506,13 @@
         <v>171950</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6509,13 +6527,13 @@
         <v>950497</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="H14" s="7">
         <v>1358</v>
@@ -6524,13 +6542,13 @@
         <v>974061</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="M14" s="7">
         <v>2202</v>
@@ -6539,13 +6557,13 @@
         <v>1924558</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,7 +6619,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6619,7 +6637,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6634,7 +6652,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6664,13 +6682,13 @@
         <v>66852</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>49</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>84</v>
@@ -6679,13 +6697,13 @@
         <v>50943</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>42</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>162</v>
@@ -6694,13 +6712,13 @@
         <v>117795</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>124</v>
+        <v>344</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>396</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6715,13 +6733,13 @@
         <v>660072</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>57</v>
+        <v>408</v>
       </c>
       <c r="H18" s="7">
         <v>962</v>
@@ -6730,13 +6748,13 @@
         <v>822724</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>52</v>
+        <v>411</v>
       </c>
       <c r="M18" s="7">
         <v>1558</v>
@@ -6745,13 +6763,13 @@
         <v>1482795</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>402</v>
+        <v>54</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>134</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6807,7 +6825,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6825,7 +6843,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6834,13 +6852,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6849,13 +6867,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6870,13 +6888,13 @@
         <v>95307</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>407</v>
+        <v>252</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="H21" s="7">
         <v>145</v>
@@ -6885,13 +6903,13 @@
         <v>82828</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>411</v>
+        <v>229</v>
       </c>
       <c r="M21" s="7">
         <v>273</v>
@@ -6900,13 +6918,13 @@
         <v>178136</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>323</v>
+        <v>400</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6921,13 +6939,13 @@
         <v>866656</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>416</v>
+        <v>260</v>
       </c>
       <c r="H22" s="7">
         <v>1414</v>
@@ -6936,13 +6954,13 @@
         <v>1063666</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>217</v>
+        <v>337</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>2291</v>
@@ -6951,13 +6969,13 @@
         <v>1930321</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>331</v>
+        <v>237</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7031,7 +7049,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7043,10 +7061,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7055,13 +7073,13 @@
         <v>31497</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>422</v>
+        <v>366</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7076,13 +7094,13 @@
         <v>317056</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="H25" s="7">
         <v>543</v>
@@ -7091,13 +7109,13 @@
         <v>288458</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>429</v>
+        <v>285</v>
       </c>
       <c r="M25" s="7">
         <v>968</v>
@@ -7106,13 +7124,13 @@
         <v>605514</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7127,13 +7145,13 @@
         <v>3060550</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="H26" s="7">
         <v>4814</v>
@@ -7142,13 +7160,13 @@
         <v>3513109</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M26" s="7">
         <v>7759</v>
@@ -7157,13 +7175,13 @@
         <v>6573659</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>171</v>
+        <v>442</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1402-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1402-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF6871DB-C9AE-4508-A1C5-B130DF8F4DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82BD1F62-0B85-4A36-9CA4-91B96430B8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D048B92F-989B-4485-BB1C-F7121388AAF3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF9EF650-680A-4FA7-A6AF-AAB1A322936B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="453">
   <si>
     <t>Población con diagnóstico de diabetes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No recogida</t>
@@ -95,1191 +95,1230 @@
     <t>7,17%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>2,34%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
   </si>
   <si>
     <t>10,25%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>89,75%</t>
   </si>
   <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
   </si>
   <si>
     <t>8,72%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>91,28%</t>
   </si>
   <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
     <t>0,24%</t>
   </si>
   <si>
@@ -1298,9 +1337,6 @@
     <t>6,04%</t>
   </si>
   <si>
-    <t>8,44%</t>
-  </si>
-  <si>
     <t>9,48%</t>
   </si>
   <si>
@@ -1343,9 +1379,6 @@
     <t>6,59%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
     <t>7,76%</t>
   </si>
   <si>
@@ -1362,12 +1395,6 @@
   </si>
   <si>
     <t>92,71%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
   </si>
   <si>
     <t>91,91%</t>
@@ -1782,7 +1809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5E2512-60D8-46F6-AAED-5C2DF804A9DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99817947-1596-4473-A7DD-1C5D30011C3D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2581,7 +2608,7 @@
         <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -2590,13 +2617,13 @@
         <v>45293</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>77</v>
@@ -2605,13 +2632,13 @@
         <v>75144</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,13 +2653,13 @@
         <v>648658</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>649</v>
@@ -2641,13 +2668,13 @@
         <v>638548</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>1260</v>
@@ -2656,13 +2683,13 @@
         <v>1287206</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,7 +2745,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2736,7 +2763,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2751,7 +2778,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2766,7 +2793,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2808,13 @@
         <v>50725</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H21" s="7">
         <v>64</v>
@@ -2796,13 +2823,13 @@
         <v>65889</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M21" s="7">
         <v>122</v>
@@ -2811,13 +2838,13 @@
         <v>116614</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2859,13 @@
         <v>891497</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>933</v>
@@ -2847,13 +2874,13 @@
         <v>972723</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>1869</v>
@@ -2862,13 +2889,13 @@
         <v>1864220</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,7 +2969,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2957,7 +2984,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2972,7 +2999,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +3014,13 @@
         <v>185467</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>224</v>
@@ -3002,13 +3029,13 @@
         <v>229249</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>416</v>
@@ -3017,13 +3044,13 @@
         <v>414716</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,16 +3062,16 @@
         <v>3022</v>
       </c>
       <c r="D26" s="7">
-        <v>3091077</v>
+        <v>3091076</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="H26" s="7">
         <v>3073</v>
@@ -3053,13 +3080,13 @@
         <v>3149949</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>6095</v>
@@ -3068,13 +3095,13 @@
         <v>6241025</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,7 +3113,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>36</v>
@@ -3130,7 +3157,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3151,7 +3178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE82E0-534A-4D3B-8491-87DF8FEFA000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C821355-DFDE-449F-8885-B385BAF4CE35}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3168,7 +3195,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3281,7 +3308,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3296,7 +3323,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3311,7 +3338,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3353,13 @@
         <v>4913</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -3341,13 +3368,13 @@
         <v>5441</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -3356,13 +3383,13 @@
         <v>10354</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,13 +3404,13 @@
         <v>110852</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H6" s="7">
         <v>94</v>
@@ -3392,13 +3419,13 @@
         <v>106464</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="M6" s="7">
         <v>210</v>
@@ -3407,13 +3434,13 @@
         <v>217316</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,7 +3514,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3502,7 +3529,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3532,13 +3559,13 @@
         <v>43423</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="H9" s="7">
         <v>42</v>
@@ -3547,13 +3574,13 @@
         <v>44173</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="M9" s="7">
         <v>81</v>
@@ -3562,13 +3589,13 @@
         <v>87596</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,13 +3610,13 @@
         <v>544281</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>509</v>
@@ -3598,13 +3625,13 @@
         <v>540972</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>1022</v>
@@ -3613,13 +3640,13 @@
         <v>1085253</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,7 +3720,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3708,7 +3735,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3723,7 +3750,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,13 +3765,13 @@
         <v>65707</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -3753,13 +3780,13 @@
         <v>83310</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>137</v>
@@ -3768,13 +3795,13 @@
         <v>149017</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3816,13 @@
         <v>952240</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H14" s="7">
         <v>861</v>
@@ -3804,13 +3831,13 @@
         <v>945663</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>1737</v>
@@ -3819,13 +3846,13 @@
         <v>1897903</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,7 +3941,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3944,13 +3971,13 @@
         <v>54702</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H17" s="7">
         <v>62</v>
@@ -3959,13 +3986,13 @@
         <v>66045</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>111</v>
@@ -3974,13 +4001,13 @@
         <v>120747</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +4022,13 @@
         <v>702921</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H18" s="7">
         <v>643</v>
@@ -4010,13 +4037,13 @@
         <v>711129</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M18" s="7">
         <v>1283</v>
@@ -4025,13 +4052,13 @@
         <v>1414050</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,7 +4114,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4120,7 +4147,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4135,7 +4162,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4177,13 @@
         <v>88381</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="H21" s="7">
         <v>104</v>
@@ -4165,13 +4192,13 @@
         <v>108235</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>70</v>
+        <v>223</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="M21" s="7">
         <v>186</v>
@@ -4180,13 +4207,13 @@
         <v>196616</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4228,13 @@
         <v>859358</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="H22" s="7">
         <v>899</v>
@@ -4216,13 +4243,13 @@
         <v>943666</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="M22" s="7">
         <v>1727</v>
@@ -4231,13 +4258,13 @@
         <v>1803024</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,7 +4338,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4326,7 +4353,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4341,7 +4368,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4383,13 @@
         <v>257126</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="H25" s="7">
         <v>290</v>
@@ -4371,13 +4398,13 @@
         <v>307203</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>231</v>
+        <v>43</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="M25" s="7">
         <v>526</v>
@@ -4386,13 +4413,13 @@
         <v>564329</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4434,13 @@
         <v>3169653</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="H26" s="7">
         <v>3006</v>
@@ -4422,28 +4449,28 @@
         <v>3247895</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>241</v>
+        <v>51</v>
       </c>
       <c r="M26" s="7">
         <v>5979</v>
       </c>
       <c r="N26" s="7">
-        <v>6417549</v>
+        <v>6417548</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,7 +4512,7 @@
         <v>6505</v>
       </c>
       <c r="N27" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -4499,7 +4526,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4520,7 +4547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582D3098-F1A5-4100-825A-2AF8638B466A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83751786-8702-4D04-B2D9-C95C44F280B3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4537,7 +4564,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4650,7 +4677,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4665,7 +4692,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4680,7 +4707,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4722,13 @@
         <v>8007</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -4710,13 +4737,13 @@
         <v>9469</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -4725,13 +4752,13 @@
         <v>17476</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>43</v>
+        <v>263</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,13 +4773,13 @@
         <v>108539</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="H6" s="7">
         <v>107</v>
@@ -4761,13 +4788,13 @@
         <v>103891</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="M6" s="7">
         <v>211</v>
@@ -4776,13 +4803,13 @@
         <v>212430</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>51</v>
+        <v>272</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,7 +4883,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4871,7 +4898,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4886,7 +4913,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4928,13 @@
         <v>57111</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>106</v>
+        <v>278</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="H9" s="7">
         <v>43</v>
@@ -4916,13 +4943,13 @@
         <v>46010</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>69</v>
+        <v>281</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="M9" s="7">
         <v>100</v>
@@ -4931,13 +4958,13 @@
         <v>103121</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4979,13 @@
         <v>501143</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>113</v>
+        <v>287</v>
       </c>
       <c r="H10" s="7">
         <v>508</v>
@@ -4967,13 +4994,13 @@
         <v>513469</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="M10" s="7">
         <v>990</v>
@@ -4982,13 +5009,13 @@
         <v>1014612</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,7 +5089,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5077,7 +5104,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5092,7 +5119,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5134,13 @@
         <v>85681</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>25</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -5122,13 +5149,13 @@
         <v>85061</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="M13" s="7">
         <v>157</v>
@@ -5137,13 +5164,13 @@
         <v>170742</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,13 +5185,13 @@
         <v>936750</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>34</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>905</v>
@@ -5173,13 +5200,13 @@
         <v>957852</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>1771</v>
@@ -5188,13 +5215,13 @@
         <v>1894602</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,7 +5310,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5298,7 +5325,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,13 +5340,13 @@
         <v>74092</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -5328,13 +5355,13 @@
         <v>69699</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>315</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>129</v>
@@ -5343,13 +5370,13 @@
         <v>143791</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,13 +5391,13 @@
         <v>685460</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="H18" s="7">
         <v>675</v>
@@ -5379,13 +5406,13 @@
         <v>715312</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>325</v>
       </c>
       <c r="M18" s="7">
         <v>1303</v>
@@ -5394,13 +5421,13 @@
         <v>1400772</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,7 +5483,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5489,7 +5516,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5504,7 +5531,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,13 +5546,13 @@
         <v>72825</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>104</v>
+        <v>329</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="H21" s="7">
         <v>73</v>
@@ -5534,13 +5561,13 @@
         <v>86940</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="M21" s="7">
         <v>152</v>
@@ -5549,13 +5576,13 @@
         <v>159765</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>126</v>
+        <v>335</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,13 +5597,13 @@
         <v>864742</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>112</v>
+        <v>338</v>
       </c>
       <c r="H22" s="7">
         <v>886</v>
@@ -5585,13 +5612,13 @@
         <v>956839</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="M22" s="7">
         <v>1739</v>
@@ -5600,13 +5627,13 @@
         <v>1821581</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,7 +5707,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5695,7 +5722,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5710,7 +5737,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5752,13 @@
         <v>297716</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>330</v>
+        <v>67</v>
       </c>
       <c r="H25" s="7">
         <v>257</v>
@@ -5740,13 +5767,13 @@
         <v>297179</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>332</v>
+        <v>209</v>
       </c>
       <c r="M25" s="7">
         <v>555</v>
@@ -5755,13 +5782,13 @@
         <v>594895</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>229</v>
+        <v>346</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>65</v>
+        <v>347</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>333</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5803,13 @@
         <v>3096634</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H26" s="7">
         <v>3081</v>
@@ -5791,13 +5818,13 @@
         <v>3247363</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>336</v>
+        <v>217</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="M26" s="7">
         <v>6014</v>
@@ -5806,13 +5833,13 @@
         <v>6343997</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>237</v>
+        <v>349</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>338</v>
+        <v>211</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>74</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,7 +5895,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5889,7 +5916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0E9CF2-966A-4E1F-980B-4C2F70BCB1FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FFE7F2-6303-47E8-BA01-6AD5205A74C0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5906,7 +5933,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6019,7 +6046,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6034,7 +6061,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6049,7 +6076,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,13 +6091,13 @@
         <v>10121</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -6079,13 +6106,13 @@
         <v>17390</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="M5" s="7">
         <v>58</v>
@@ -6094,13 +6121,13 @@
         <v>27511</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,13 +6142,13 @@
         <v>91861</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="H6" s="7">
         <v>201</v>
@@ -6130,13 +6157,13 @@
         <v>113343</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="M6" s="7">
         <v>303</v>
@@ -6145,13 +6172,13 @@
         <v>205204</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,7 +6252,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6234,13 +6261,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6249,13 +6276,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,13 +6297,13 @@
         <v>56883</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="H9" s="7">
         <v>116</v>
@@ -6285,13 +6312,13 @@
         <v>53240</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="M9" s="7">
         <v>200</v>
@@ -6300,13 +6327,13 @@
         <v>110123</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,13 +6348,13 @@
         <v>491465</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="H10" s="7">
         <v>879</v>
@@ -6336,13 +6363,13 @@
         <v>539315</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="M10" s="7">
         <v>1405</v>
@@ -6351,13 +6378,13 @@
         <v>1030780</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6431,7 +6458,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6440,13 +6467,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6455,13 +6482,13 @@
         <v>1323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,13 +6503,13 @@
         <v>87891</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>239</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="H13" s="7">
         <v>156</v>
@@ -6491,13 +6518,13 @@
         <v>84058</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="M13" s="7">
         <v>275</v>
@@ -6506,13 +6533,13 @@
         <v>171950</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6554,13 @@
         <v>950497</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>392</v>
+        <v>246</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>1358</v>
@@ -6542,13 +6569,13 @@
         <v>974061</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="M14" s="7">
         <v>2202</v>
@@ -6557,13 +6584,13 @@
         <v>1924558</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>407</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,7 +6679,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6682,13 +6709,13 @@
         <v>66852</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>84</v>
@@ -6697,13 +6724,13 @@
         <v>50943</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>162</v>
@@ -6712,13 +6739,13 @@
         <v>117795</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>46</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6760,13 @@
         <v>660072</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="H18" s="7">
         <v>962</v>
@@ -6748,13 +6775,13 @@
         <v>822724</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="M18" s="7">
         <v>1558</v>
@@ -6763,13 +6790,13 @@
         <v>1482795</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>54</v>
+        <v>425</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6825,7 +6852,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6843,7 +6870,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6852,13 +6879,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6867,13 +6894,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,13 +6915,13 @@
         <v>95307</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="H21" s="7">
         <v>145</v>
@@ -6903,13 +6930,13 @@
         <v>82828</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>229</v>
+        <v>346</v>
       </c>
       <c r="M21" s="7">
         <v>273</v>
@@ -6918,13 +6945,13 @@
         <v>178136</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>419</v>
+        <v>64</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,13 +6966,13 @@
         <v>866656</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>1414</v>
@@ -6954,13 +6981,13 @@
         <v>1063666</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>2291</v>
@@ -6969,13 +6996,13 @@
         <v>1930321</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>237</v>
+        <v>349</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7049,7 +7076,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7061,10 +7088,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7073,13 +7100,13 @@
         <v>31497</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,13 +7121,13 @@
         <v>317056</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>385</v>
+        <v>239</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="H25" s="7">
         <v>543</v>
@@ -7109,13 +7136,13 @@
         <v>288458</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="M25" s="7">
         <v>968</v>
@@ -7124,13 +7151,13 @@
         <v>605514</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>434</v>
+        <v>226</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,13 +7172,13 @@
         <v>3060550</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>392</v>
+        <v>246</v>
       </c>
       <c r="H26" s="7">
         <v>4814</v>
@@ -7160,13 +7187,13 @@
         <v>3513109</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="M26" s="7">
         <v>7759</v>
@@ -7175,13 +7202,13 @@
         <v>6573659</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>441</v>
+        <v>97</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>442</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7237,7 +7264,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1402-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1402-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAB66236-198F-491F-9143-A0502217C304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19689499-0045-4254-9F90-6C7C63922C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{90D45832-6C8B-4983-A01B-49E1FCFEF65D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{53909A89-F075-4217-BC9C-610CCCCEA339}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="328">
   <si>
     <t>Población con diagnóstico de diabetes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1156 +68,961 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>6,76%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>3,76%</t>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
   <si>
     <t>9,79%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
   <si>
     <t>90,21%</t>
   </si>
   <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
 </sst>
 </file>
@@ -1629,8 +1434,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37566800-D581-4233-8070-038B217D8430}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC69886-6F22-4B71-8DB3-33D26E56AE74}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1747,10 +1552,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D4" s="7">
-        <v>8266</v>
+        <v>39885</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1762,10 +1567,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="I4" s="7">
-        <v>5933</v>
+        <v>41502</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1777,10 +1582,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="N4" s="7">
-        <v>14199</v>
+        <v>81387</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1798,10 +1603,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>97</v>
+        <v>642</v>
       </c>
       <c r="D5" s="7">
-        <v>107092</v>
+        <v>654127</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1813,10 +1618,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>121</v>
+        <v>654</v>
       </c>
       <c r="I5" s="7">
-        <v>106822</v>
+        <v>646849</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1828,10 +1633,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>218</v>
+        <v>1296</v>
       </c>
       <c r="N5" s="7">
-        <v>213914</v>
+        <v>1300976</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1849,10 +1654,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1864,10 +1669,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1879,10 +1684,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1902,10 +1707,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D7" s="7">
-        <v>31619</v>
+        <v>65006</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1917,10 +1722,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="I7" s="7">
-        <v>35569</v>
+        <v>76565</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1932,10 +1737,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="N7" s="7">
-        <v>67188</v>
+        <v>141571</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1953,10 +1758,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>545</v>
+        <v>833</v>
       </c>
       <c r="D8" s="7">
-        <v>547035</v>
+        <v>896794</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1968,10 +1773,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>533</v>
+        <v>837</v>
       </c>
       <c r="I8" s="7">
-        <v>540027</v>
+        <v>891828</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1983,10 +1788,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1078</v>
+        <v>1670</v>
       </c>
       <c r="N8" s="7">
-        <v>1087062</v>
+        <v>1788622</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2004,10 +1809,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2019,10 +1824,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2034,10 +1839,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2057,49 +1862,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>65006</v>
+        <v>29851</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="I10" s="7">
-        <v>76565</v>
+        <v>45293</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="N10" s="7">
-        <v>141571</v>
+        <v>75144</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,49 +1913,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>833</v>
+        <v>611</v>
       </c>
       <c r="D11" s="7">
-        <v>896794</v>
+        <v>648658</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>837</v>
+        <v>649</v>
       </c>
       <c r="I11" s="7">
-        <v>891828</v>
+        <v>638548</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1670</v>
+        <v>1260</v>
       </c>
       <c r="N11" s="7">
-        <v>1788622</v>
+        <v>1287206</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,10 +1964,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2174,10 +1979,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2189,10 +1994,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2206,55 +2011,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D13" s="7">
-        <v>29851</v>
+        <v>50725</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="7">
         <v>64</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="7">
-        <v>47</v>
-      </c>
       <c r="I13" s="7">
-        <v>45293</v>
+        <v>65889</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
+        <v>122</v>
+      </c>
+      <c r="N13" s="7">
+        <v>116614</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="N13" s="7">
-        <v>75144</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,49 +2068,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>611</v>
+        <v>936</v>
       </c>
       <c r="D14" s="7">
-        <v>648658</v>
+        <v>891497</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>649</v>
+        <v>933</v>
       </c>
       <c r="I14" s="7">
-        <v>638548</v>
+        <v>972723</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>1260</v>
+        <v>1869</v>
       </c>
       <c r="N14" s="7">
-        <v>1287206</v>
+        <v>1864220</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,10 +2119,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2329,10 +2134,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2344,10 +2149,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2361,55 +2166,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="D16" s="7">
-        <v>50725</v>
+        <v>185467</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="I16" s="7">
-        <v>65889</v>
+        <v>229249</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>122</v>
+        <v>416</v>
       </c>
       <c r="N16" s="7">
-        <v>116614</v>
+        <v>414716</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,49 +2223,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>936</v>
+        <v>3022</v>
       </c>
       <c r="D17" s="7">
-        <v>891497</v>
+        <v>3091076</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>933</v>
+        <v>3073</v>
       </c>
       <c r="I17" s="7">
-        <v>972723</v>
+        <v>3149948</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>1869</v>
+        <v>6095</v>
       </c>
       <c r="N17" s="7">
-        <v>1864220</v>
+        <v>6241025</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,10 +2274,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2484,10 +2289,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2499,10 +2304,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2515,171 +2320,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>192</v>
-      </c>
-      <c r="D19" s="7">
-        <v>185467</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="7">
-        <v>224</v>
-      </c>
-      <c r="I19" s="7">
-        <v>229249</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="M19" s="7">
-        <v>416</v>
-      </c>
-      <c r="N19" s="7">
-        <v>414716</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3022</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3091077</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3073</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3149949</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6095</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6241024</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>117</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2692,8 +2341,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F875E31B-E47E-4F31-BA0D-308890EFD488}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CED32D-C18E-4CF5-864F-12E06D37BF76}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2709,7 +2358,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2810,49 +2459,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D4" s="7">
-        <v>4913</v>
+        <v>48336</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="I4" s="7">
-        <v>5441</v>
+        <v>49613</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="N4" s="7">
-        <v>10354</v>
+        <v>97950</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,49 +2510,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>629</v>
+      </c>
+      <c r="D5" s="7">
+        <v>655133</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="7">
+        <v>603</v>
+      </c>
+      <c r="I5" s="7">
+        <v>647437</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="7">
-        <v>110852</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="7">
-        <v>94</v>
-      </c>
-      <c r="I5" s="7">
-        <v>106464</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
-        <v>210</v>
+        <v>1232</v>
       </c>
       <c r="N5" s="7">
-        <v>217316</v>
+        <v>1302569</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,10 +2561,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2927,10 +2576,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2942,10 +2591,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2965,49 +2614,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D7" s="7">
-        <v>43423</v>
+        <v>65707</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="7">
+        <v>77</v>
+      </c>
+      <c r="I7" s="7">
+        <v>83310</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M7" s="7">
         <v>137</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H7" s="7">
-        <v>42</v>
-      </c>
-      <c r="I7" s="7">
-        <v>44173</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="M7" s="7">
-        <v>81</v>
-      </c>
       <c r="N7" s="7">
-        <v>87596</v>
+        <v>149017</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,49 +2665,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>513</v>
+        <v>876</v>
       </c>
       <c r="D8" s="7">
-        <v>544281</v>
+        <v>952240</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
-        <v>509</v>
+        <v>861</v>
       </c>
       <c r="I8" s="7">
-        <v>540972</v>
+        <v>945663</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="M8" s="7">
-        <v>1022</v>
+        <v>1737</v>
       </c>
       <c r="N8" s="7">
-        <v>1085253</v>
+        <v>1897904</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,10 +2716,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3082,10 +2731,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3097,10 +2746,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046921</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3120,49 +2769,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7">
-        <v>65707</v>
+        <v>54702</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="H10" s="7">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="I10" s="7">
-        <v>83310</v>
+        <v>66045</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="M10" s="7">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="N10" s="7">
-        <v>149017</v>
+        <v>120747</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,49 +2820,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>876</v>
+        <v>640</v>
       </c>
       <c r="D11" s="7">
-        <v>952240</v>
+        <v>702921</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="H11" s="7">
-        <v>861</v>
+        <v>643</v>
       </c>
       <c r="I11" s="7">
-        <v>945663</v>
+        <v>711129</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="M11" s="7">
-        <v>1737</v>
+        <v>1283</v>
       </c>
       <c r="N11" s="7">
-        <v>1897903</v>
+        <v>1414050</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,10 +2871,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3237,10 +2886,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3252,10 +2901,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2046920</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3269,55 +2918,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D13" s="7">
-        <v>54702</v>
+        <v>88381</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="H13" s="7">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="I13" s="7">
-        <v>66045</v>
+        <v>108235</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="M13" s="7">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="N13" s="7">
-        <v>120747</v>
+        <v>196616</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,49 +2975,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>640</v>
+        <v>828</v>
       </c>
       <c r="D14" s="7">
-        <v>702921</v>
+        <v>859358</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="H14" s="7">
-        <v>643</v>
+        <v>899</v>
       </c>
       <c r="I14" s="7">
-        <v>711129</v>
+        <v>943666</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="M14" s="7">
-        <v>1283</v>
+        <v>1727</v>
       </c>
       <c r="N14" s="7">
-        <v>1414050</v>
+        <v>1803024</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,10 +3026,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3392,10 +3041,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3407,10 +3056,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3424,55 +3073,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="D16" s="7">
-        <v>88381</v>
+        <v>257126</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="H16" s="7">
-        <v>104</v>
+        <v>290</v>
       </c>
       <c r="I16" s="7">
-        <v>108235</v>
+        <v>307203</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
-        <v>186</v>
+        <v>526</v>
       </c>
       <c r="N16" s="7">
-        <v>196616</v>
+        <v>564329</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,49 +3130,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>828</v>
+        <v>2973</v>
       </c>
       <c r="D17" s="7">
-        <v>859358</v>
+        <v>3169653</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="H17" s="7">
-        <v>899</v>
+        <v>3006</v>
       </c>
       <c r="I17" s="7">
-        <v>943666</v>
+        <v>3247895</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="M17" s="7">
-        <v>1727</v>
+        <v>5979</v>
       </c>
       <c r="N17" s="7">
-        <v>1803024</v>
+        <v>6417548</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,10 +3181,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3547,10 +3196,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3555098</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3562,10 +3211,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6505</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6981877</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3578,171 +3227,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>236</v>
-      </c>
-      <c r="D19" s="7">
-        <v>257126</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H19" s="7">
-        <v>290</v>
-      </c>
-      <c r="I19" s="7">
-        <v>307203</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M19" s="7">
-        <v>526</v>
-      </c>
-      <c r="N19" s="7">
-        <v>564329</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2973</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3169653</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3006</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3247895</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5979</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6417548</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3555098</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6505</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6981877</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>117</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3755,8 +3248,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0B7BC-0D20-49C0-B62B-D8333291B8A8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA32DDC-59E1-45F9-9539-BB93929AA44B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3772,7 +3265,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3873,49 +3366,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D4" s="7">
-        <v>8007</v>
+        <v>65118</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="I4" s="7">
-        <v>9469</v>
+        <v>55479</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="N4" s="7">
-        <v>17476</v>
+        <v>120596</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,49 +3417,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>104</v>
+        <v>586</v>
       </c>
       <c r="D5" s="7">
-        <v>108539</v>
+        <v>609682</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="H5" s="7">
-        <v>107</v>
+        <v>615</v>
       </c>
       <c r="I5" s="7">
-        <v>103891</v>
+        <v>617360</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="M5" s="7">
-        <v>211</v>
+        <v>1201</v>
       </c>
       <c r="N5" s="7">
-        <v>212430</v>
+        <v>1227043</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,10 +3468,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3990,10 +3483,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4005,10 +3498,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4028,49 +3521,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D7" s="7">
-        <v>57111</v>
+        <v>85681</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>227</v>
+        <v>72</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="I7" s="7">
-        <v>46010</v>
+        <v>85061</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="N7" s="7">
-        <v>103121</v>
+        <v>170742</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,49 +3572,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>482</v>
+        <v>866</v>
       </c>
       <c r="D8" s="7">
-        <v>501143</v>
+        <v>936750</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="H8" s="7">
-        <v>508</v>
+        <v>905</v>
       </c>
       <c r="I8" s="7">
-        <v>513469</v>
+        <v>957852</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="M8" s="7">
-        <v>990</v>
+        <v>1771</v>
       </c>
       <c r="N8" s="7">
-        <v>1014612</v>
+        <v>1894602</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,10 +3623,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4145,10 +3638,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4160,10 +3653,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4183,49 +3676,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D10" s="7">
-        <v>85681</v>
+        <v>74092</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="H10" s="7">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I10" s="7">
-        <v>85061</v>
+        <v>69699</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="M10" s="7">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="N10" s="7">
-        <v>170742</v>
+        <v>143791</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,49 +3727,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>866</v>
+        <v>628</v>
       </c>
       <c r="D11" s="7">
-        <v>936750</v>
+        <v>685460</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>91</v>
+        <v>226</v>
       </c>
       <c r="H11" s="7">
-        <v>905</v>
+        <v>675</v>
       </c>
       <c r="I11" s="7">
-        <v>957852</v>
+        <v>715312</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="M11" s="7">
-        <v>1771</v>
+        <v>1303</v>
       </c>
       <c r="N11" s="7">
-        <v>1894602</v>
+        <v>1400772</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,10 +3778,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4300,10 +3793,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4315,10 +3808,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4332,55 +3825,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D13" s="7">
-        <v>74092</v>
+        <v>72825</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="I13" s="7">
-        <v>69699</v>
+        <v>86940</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="N13" s="7">
-        <v>143791</v>
+        <v>159765</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>267</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,49 +3882,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>628</v>
+        <v>853</v>
       </c>
       <c r="D14" s="7">
-        <v>685460</v>
+        <v>864742</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="H14" s="7">
-        <v>675</v>
+        <v>886</v>
       </c>
       <c r="I14" s="7">
-        <v>715312</v>
+        <v>956839</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="M14" s="7">
-        <v>1303</v>
+        <v>1739</v>
       </c>
       <c r="N14" s="7">
-        <v>1400772</v>
+        <v>1821581</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,10 +3933,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4455,10 +3948,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4470,10 +3963,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4487,55 +3980,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="D16" s="7">
-        <v>72825</v>
+        <v>297716</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="H16" s="7">
-        <v>73</v>
+        <v>257</v>
       </c>
       <c r="I16" s="7">
-        <v>86940</v>
+        <v>297179</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
-        <v>152</v>
+        <v>555</v>
       </c>
       <c r="N16" s="7">
-        <v>159765</v>
+        <v>594895</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,49 +4037,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>853</v>
+        <v>2933</v>
       </c>
       <c r="D17" s="7">
-        <v>864742</v>
+        <v>3096634</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="H17" s="7">
-        <v>886</v>
+        <v>3081</v>
       </c>
       <c r="I17" s="7">
-        <v>956839</v>
+        <v>3247363</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7">
-        <v>1739</v>
+        <v>6014</v>
       </c>
       <c r="N17" s="7">
-        <v>1821581</v>
+        <v>6343997</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,10 +4088,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4610,10 +4103,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4625,10 +4118,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4641,171 +4134,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>298</v>
-      </c>
-      <c r="D19" s="7">
-        <v>297716</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H19" s="7">
-        <v>257</v>
-      </c>
-      <c r="I19" s="7">
-        <v>297179</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="M19" s="7">
-        <v>555</v>
-      </c>
-      <c r="N19" s="7">
-        <v>594895</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2933</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3096634</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3081</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3247363</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6014</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6343997</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>117</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4818,8 +4155,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2421DEA9-814E-4832-BC69-7E4BC978AB7B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AE9C78-2B05-40E5-B8C4-A1C9ACFE4E51}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4835,7 +4172,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4936,49 +4273,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="D4" s="7">
-        <v>10121</v>
+        <v>64185</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>304</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="H4" s="7">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="I4" s="7">
-        <v>17390</v>
+        <v>66317</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="M4" s="7">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="N4" s="7">
-        <v>27511</v>
+        <v>130502</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,49 +4324,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>102</v>
+        <v>628</v>
       </c>
       <c r="D5" s="7">
-        <v>91861</v>
+        <v>569834</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>314</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7">
-        <v>201</v>
+        <v>1080</v>
       </c>
       <c r="I5" s="7">
-        <v>113343</v>
+        <v>609053</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="M5" s="7">
-        <v>303</v>
+        <v>1708</v>
       </c>
       <c r="N5" s="7">
-        <v>205204</v>
+        <v>1178887</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,10 +4375,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>728</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>634019</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5053,10 +4390,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5068,10 +4405,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1966</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1309389</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5091,49 +4428,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="D7" s="7">
-        <v>56883</v>
+        <v>83301</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>321</v>
+        <v>111</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="H7" s="7">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="I7" s="7">
-        <v>53240</v>
+        <v>76629</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="M7" s="7">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="N7" s="7">
-        <v>110123</v>
+        <v>159930</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>203</v>
+        <v>277</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>325</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,49 +4479,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>526</v>
+        <v>844</v>
       </c>
       <c r="D8" s="7">
-        <v>491465</v>
+        <v>1108755</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>326</v>
+        <v>119</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="H8" s="7">
-        <v>879</v>
+        <v>1358</v>
       </c>
       <c r="I8" s="7">
-        <v>539315</v>
+        <v>880227</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>284</v>
       </c>
       <c r="M8" s="7">
-        <v>1405</v>
+        <v>2202</v>
       </c>
       <c r="N8" s="7">
-        <v>1030780</v>
+        <v>1988982</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>208</v>
+        <v>285</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,10 +4530,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>610</v>
+        <v>963</v>
       </c>
       <c r="D9" s="7">
-        <v>548348</v>
+        <v>1192056</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5208,10 +4545,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1514</v>
       </c>
       <c r="I9" s="7">
-        <v>592555</v>
+        <v>956856</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5223,10 +4560,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1605</v>
+        <v>2477</v>
       </c>
       <c r="N9" s="7">
-        <v>1140903</v>
+        <v>2148912</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5246,49 +4583,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="D10" s="7">
-        <v>87891</v>
+        <v>63283</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="H10" s="7">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="I10" s="7">
-        <v>84058</v>
+        <v>46307</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>334</v>
+        <v>76</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="M10" s="7">
-        <v>275</v>
+        <v>162</v>
       </c>
       <c r="N10" s="7">
-        <v>171950</v>
+        <v>109590</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>293</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,49 +4634,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>844</v>
+        <v>596</v>
       </c>
       <c r="D11" s="7">
-        <v>950497</v>
+        <v>639682</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="H11" s="7">
-        <v>1358</v>
+        <v>962</v>
       </c>
       <c r="I11" s="7">
-        <v>974061</v>
+        <v>886447</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>343</v>
+        <v>85</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="M11" s="7">
-        <v>2202</v>
+        <v>1558</v>
       </c>
       <c r="N11" s="7">
-        <v>1924558</v>
+        <v>1526128</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>346</v>
+        <v>300</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>348</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,10 +4685,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>674</v>
       </c>
       <c r="D12" s="7">
-        <v>1038388</v>
+        <v>702965</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5363,10 +4700,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1514</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1058119</v>
+        <v>932754</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5378,10 +4715,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2477</v>
+        <v>1720</v>
       </c>
       <c r="N12" s="7">
-        <v>2096508</v>
+        <v>1635718</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5395,55 +4732,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="D13" s="7">
-        <v>66852</v>
+        <v>89099</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>349</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>302</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="H13" s="7">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="I13" s="7">
-        <v>50943</v>
+        <v>74567</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>33</v>
+        <v>305</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>352</v>
+        <v>125</v>
       </c>
       <c r="M13" s="7">
-        <v>162</v>
+        <v>273</v>
       </c>
       <c r="N13" s="7">
-        <v>117795</v>
+        <v>163666</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>106</v>
+        <v>307</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,49 +4789,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>596</v>
+        <v>877</v>
       </c>
       <c r="D14" s="7">
-        <v>660072</v>
+        <v>833861</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>355</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>310</v>
       </c>
       <c r="H14" s="7">
-        <v>962</v>
+        <v>1414</v>
       </c>
       <c r="I14" s="7">
-        <v>822724</v>
+        <v>1016949</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>358</v>
+        <v>132</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>43</v>
+        <v>312</v>
       </c>
       <c r="M14" s="7">
-        <v>1558</v>
+        <v>2291</v>
       </c>
       <c r="N14" s="7">
-        <v>1482795</v>
+        <v>1850809</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>116</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,10 +4840,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>674</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="7">
-        <v>726924</v>
+        <v>922960</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5518,10 +4855,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>873667</v>
+        <v>1091516</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5533,10 +4870,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1720</v>
+        <v>2564</v>
       </c>
       <c r="N15" s="7">
-        <v>1600590</v>
+        <v>2014475</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5550,55 +4887,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>128</v>
+        <v>425</v>
       </c>
       <c r="D16" s="7">
-        <v>95307</v>
+        <v>299869</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="H16" s="7">
-        <v>145</v>
+        <v>543</v>
       </c>
       <c r="I16" s="7">
-        <v>82828</v>
+        <v>263819</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7">
-        <v>273</v>
+        <v>968</v>
       </c>
       <c r="N16" s="7">
-        <v>178136</v>
+        <v>563688</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>368</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,49 +4944,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>877</v>
+        <v>2945</v>
       </c>
       <c r="D17" s="7">
-        <v>866656</v>
+        <v>3152131</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="H17" s="7">
-        <v>1414</v>
+        <v>4814</v>
       </c>
       <c r="I17" s="7">
-        <v>1063666</v>
+        <v>3392676</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>372</v>
+        <v>310</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="M17" s="7">
-        <v>2291</v>
+        <v>7759</v>
       </c>
       <c r="N17" s="7">
-        <v>1930321</v>
+        <v>6544807</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,10 +4995,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1005</v>
+        <v>3370</v>
       </c>
       <c r="D18" s="7">
-        <v>961963</v>
+        <v>3452000</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5673,10 +5010,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5357</v>
       </c>
       <c r="I18" s="7">
-        <v>1146494</v>
+        <v>3656495</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5688,10 +5025,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2564</v>
+        <v>8727</v>
       </c>
       <c r="N18" s="7">
-        <v>2108457</v>
+        <v>7108495</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5704,171 +5041,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>425</v>
-      </c>
-      <c r="D19" s="7">
-        <v>317056</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="H19" s="7">
-        <v>543</v>
-      </c>
-      <c r="I19" s="7">
-        <v>288458</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="M19" s="7">
-        <v>968</v>
-      </c>
-      <c r="N19" s="7">
-        <v>605514</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2945</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3060550</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4814</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3513110</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7759</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6573658</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3370</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3377606</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5357</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3801568</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8727</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7179172</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>117</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
